--- a/20170726-crimerates/builds/development/data/_raw/printdata.xlsx
+++ b/20170726-crimerates/builds/development/data/_raw/printdata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="740" windowWidth="24660" windowHeight="18280" tabRatio="500"/>
+    <workbookView xWindow="8560" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="neighborhoods" sheetId="3" r:id="rId1"/>
+    <sheet name="ranking" sheetId="3" r:id="rId1"/>
     <sheet name="timeline" sheetId="7" r:id="rId2"/>
-    <sheet name="source" sheetId="4" r:id="rId3"/>
+    <sheet name="race" sheetId="8" r:id="rId3"/>
+    <sheet name="source" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="278">
   <si>
     <t>ARMATAGE</t>
   </si>
@@ -143,9 +144,6 @@
     <t>KENWOOD</t>
   </si>
   <si>
-    <t>KING FIELD</t>
-  </si>
-  <si>
     <t>LIND - BOHANON</t>
   </si>
   <si>
@@ -584,6 +582,9 @@
     <t>HISPANIC</t>
   </si>
   <si>
+    <t>BLADED WEAPON</t>
+  </si>
+  <si>
     <t>Clark</t>
   </si>
   <si>
@@ -599,6 +600,9 @@
     <t>Terrance</t>
   </si>
   <si>
+    <t>GUN</t>
+  </si>
+  <si>
     <t>Crawford</t>
   </si>
   <si>
@@ -620,6 +624,9 @@
     <t>ASIAN</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>Quincy</t>
   </si>
   <si>
@@ -794,7 +801,61 @@
     <t>armed</t>
   </si>
   <si>
-    <t>ARMED</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>KINGFIELD</t>
+  </si>
+  <si>
+    <t>willard-hay</t>
+  </si>
+  <si>
+    <t>near-north</t>
+  </si>
+  <si>
+    <t>downtown west</t>
+  </si>
+  <si>
+    <t>elliot park</t>
+  </si>
+  <si>
+    <t>lowry hill east</t>
+  </si>
+  <si>
+    <t>phillips west</t>
+  </si>
+  <si>
+    <t>powderhorn</t>
+  </si>
+  <si>
+    <t>kingfield</t>
+  </si>
+  <si>
+    <t>ventura village</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>shootings</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>Source: U.S. Census Bureau, Star Tribune analysis</t>
   </si>
 </sst>
 </file>
@@ -889,7 +950,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="515">
+  <cellStyleXfs count="539">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1405,28 +1466,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="515">
+  <cellStyles count="539">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1683,6 +1771,18 @@
     <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1939,6 +2039,18 @@
     <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="1"/>
@@ -2272,2330 +2384,2334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>252</v>
+      <c r="H1" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.4014306779268575</v>
-      </c>
-      <c r="C2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2">
-        <v>44.897941589355497</v>
-      </c>
-      <c r="F2">
-        <v>-93.311828613281307</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="9">
+        <v>35.23905219296752</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9">
+        <v>44.980358123779297</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-93.265083312988295</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3.1413230784582384</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3">
-        <v>45.018630981445298</v>
-      </c>
-      <c r="F3">
-        <v>-93.237747192382798</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9">
+        <v>18.565023693992792</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44.976310729980497</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-93.255119323730497</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3.2206662226306602</v>
-      </c>
-      <c r="C4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4">
-        <v>44.930530548095703</v>
-      </c>
-      <c r="F4">
-        <v>-93.255561828613295</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="9">
+        <v>17.753047164811871</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45.0059204101563</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-93.220970153808594</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4.4224422442244222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5">
-        <v>44.995090484619098</v>
-      </c>
-      <c r="F5">
-        <v>-93.241607666015597</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="9">
+        <v>15.855635956560375</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44.991989135742202</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-93.295356750488295</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6.6774476113469436</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6">
-        <v>45.010059356689503</v>
-      </c>
-      <c r="F6">
-        <v>-93.269500732421903</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9">
+        <v>15.218921793316259</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="9">
+        <v>44.979030609130902</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-93.264930725097699</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3.4824673376999322</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7">
-        <v>44.930538177490199</v>
-      </c>
-      <c r="F7">
-        <v>-93.2681884765625</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12.996109664292046</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="9">
+        <v>44.953739166259801</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-93.248008728027301</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3.0219841041422213</v>
-      </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8">
-        <v>44.971729278564503</v>
-      </c>
-      <c r="F8">
-        <v>-93.314071655273395</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10.375245669363316</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="9">
+        <v>44.947608947753899</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-93.225669860839801</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9">
-        <v>45.037620544433601</v>
-      </c>
-      <c r="F9">
-        <v>-93.285049438476605</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9">
+        <v>9.8275617515349225</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="9">
+        <v>44.983299255371101</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-93.282089233398395</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4.1951348654400311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10">
-        <v>44.942100524902301</v>
-      </c>
-      <c r="F10">
-        <v>-93.293258666992202</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9.1985968699406371</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="9">
+        <v>45.005901336669901</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-93.284149169921903</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3.192420485889536</v>
-      </c>
-      <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11">
-        <v>44.951969146728501</v>
-      </c>
-      <c r="F11">
-        <v>-93.317932128906307</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7.2402575422318662</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="9">
+        <v>45.009601593017599</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-93.305068969726605</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4.267862269915959</v>
-      </c>
-      <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12">
-        <v>44.967739105224602</v>
-      </c>
-      <c r="F12">
-        <v>-93.246482849121094</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9">
+        <v>6.9291035191369117</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="9">
+        <v>45.029518127441399</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-93.312911987304702</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5.1608052834064297</v>
-      </c>
-      <c r="C13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13">
-        <v>44.941368103027301</v>
-      </c>
-      <c r="F13">
-        <v>-93.269569396972699</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6.8372371573063608</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44.953708648681598</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-93.258186340332003</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4.863291024066239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14">
-        <v>45.018638610839801</v>
-      </c>
-      <c r="F14">
-        <v>-93.312713623046903</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6.8177163088747355</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="9">
+        <v>44.962699890136697</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-93.289909362792997</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3.445947115967376</v>
-      </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15">
-        <v>45.031330108642599</v>
-      </c>
-      <c r="F15">
-        <v>-93.260002136230497</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6.6774476113469436</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="9">
+        <v>45.010059356689503</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-93.269500732421903</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3.644449682368982</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16">
-        <v>44.987861633300803</v>
-      </c>
-      <c r="F16">
-        <v>-93.222198486328097</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6.3854937388436959</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="9">
+        <v>44.962711334228501</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-93.261810302734403</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3.0662819004741877</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17">
-        <v>44.946819305419901</v>
-      </c>
-      <c r="F17">
-        <v>-93.212028503417997</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17">
+        <v>72</v>
+      </c>
+      <c r="B17" s="9">
+        <v>6.3643740386827989</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="9">
+        <v>44.984260559082003</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-93.290428161621094</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5.144358845129239</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18">
-        <v>44.942928314208999</v>
-      </c>
-      <c r="F18">
-        <v>-93.241462707519503</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.3593231725238279</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="9">
+        <v>45.018581390380902</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-93.300003051757798</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1.910353182368838</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19">
-        <v>44.897918701171903</v>
-      </c>
-      <c r="F19">
-        <v>-93.259651184082003</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6.0094140749083138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="9">
+        <v>45.018501281738303</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-93.285743713378906</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>18.565023693992792</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20">
-        <v>44.976310729980497</v>
-      </c>
-      <c r="F20">
-        <v>-93.255119323730497</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5.9689892851227553</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="9">
+        <v>45.0295600891113</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-93.295112609863295</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>35.23905219296752</v>
-      </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21">
-        <v>44.980358123779297</v>
-      </c>
-      <c r="F21">
-        <v>-93.265083312988295</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5.7730515485154532</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="9">
+        <v>44.957309722900398</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-93.280441284179702</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2.5364084868460077</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22">
-        <v>44.928928375244098</v>
-      </c>
-      <c r="F22">
-        <v>-93.294448852539105</v>
-      </c>
-      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5.5880394868040941</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="9">
+        <v>44.955799102783203</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-93.299057006835895</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>5.5880394868040941</v>
-      </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23">
-        <v>44.955799102783203</v>
-      </c>
-      <c r="F23">
-        <v>-93.299057006835895</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>5.540343557880286</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="9">
+        <v>44.970409393310497</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-93.2647705078125</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>12.996109664292046</v>
-      </c>
-      <c r="C24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24">
-        <v>44.953739166259801</v>
-      </c>
-      <c r="F24">
-        <v>-93.248008728027301</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9">
+        <v>5.39146387253012</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="9">
+        <v>44.963939666747997</v>
+      </c>
+      <c r="F24" s="9">
+        <v>-93.272109985351605</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5.2724008435841352</v>
-      </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25">
-        <v>44.942108154296903</v>
-      </c>
-      <c r="F25">
-        <v>-93.300872802734403</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5.3776877477287872</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="9">
+        <v>44.995151519775398</v>
+      </c>
+      <c r="F25" s="9">
+        <v>-93.311790466308594</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>5.540343557880286</v>
-      </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26">
-        <v>44.970409393310497</v>
-      </c>
-      <c r="F26">
-        <v>-93.2647705078125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5.2724008435841352</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44.942108154296903</v>
+      </c>
+      <c r="F26" s="9">
+        <v>-93.300872802734403</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>3.0041033918692857</v>
-      </c>
-      <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27">
-        <v>44.921470642089801</v>
-      </c>
-      <c r="F27">
-        <v>-93.230232238769503</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B27" s="9">
+        <v>5.1608052834064297</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="9">
+        <v>44.941368103027301</v>
+      </c>
+      <c r="F27" s="9">
+        <v>-93.269569396972699</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3.0421817132413063</v>
-      </c>
-      <c r="C28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28">
-        <v>44.979030609130902</v>
-      </c>
-      <c r="F28">
-        <v>-93.264930725097699</v>
-      </c>
-      <c r="G28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="9">
+        <v>5.144358845129239</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="9">
+        <v>44.942928314208999</v>
+      </c>
+      <c r="F28" s="9">
+        <v>-93.241462707519503</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>6.3593231725238279</v>
-      </c>
-      <c r="C29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29">
-        <v>45.018581390380902</v>
-      </c>
-      <c r="F29">
-        <v>-93.300003051757798</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="9">
+        <v>5.1003685746796616</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="9">
+        <v>44.985641479492202</v>
+      </c>
+      <c r="F29" s="9">
+        <v>-93.248687744140597</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1.6122500111544706</v>
-      </c>
-      <c r="C30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30">
-        <v>44.912448883056598</v>
-      </c>
-      <c r="F30">
-        <v>-93.318588256835895</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9">
+        <v>5.073060053846338</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="9">
+        <v>44.980758666992202</v>
+      </c>
+      <c r="F30" s="9">
+        <v>-93.305152893066406</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1.7293797619487217</v>
-      </c>
-      <c r="C31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31">
-        <v>44.908870697021499</v>
-      </c>
-      <c r="F31">
-        <v>-93.255630493164105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5.0373553647394607</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="9">
+        <v>44.957359313964801</v>
+      </c>
+      <c r="F31" s="9">
+        <v>-93.232261657714801</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>5.073060053846338</v>
-      </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32">
-        <v>44.980758666992202</v>
-      </c>
-      <c r="F32">
-        <v>-93.305152893066406</v>
-      </c>
-      <c r="G32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5.0203813075961738</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="9">
+        <v>44.942920684814503</v>
+      </c>
+      <c r="F32" s="9">
+        <v>-93.282722473144503</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>9.1985968699406371</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33">
-        <v>45.005901336669901</v>
-      </c>
-      <c r="F33">
-        <v>-93.284149169921903</v>
-      </c>
-      <c r="G33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4.9609810479375698</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="9">
+        <v>45.043918609619098</v>
+      </c>
+      <c r="F33" s="9">
+        <v>-93.293006896972699</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3.8814968625629533</v>
-      </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34">
-        <v>44.925201416015597</v>
-      </c>
-      <c r="F34">
-        <v>-93.212112426757798</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4.9568025466983983</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="9">
+        <v>44.970001220703097</v>
+      </c>
+      <c r="F34" s="9">
+        <v>-93.283889770507798</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>4.6670108187289312</v>
-      </c>
-      <c r="C35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35">
-        <v>45.012168884277301</v>
-      </c>
-      <c r="F35">
-        <v>-93.254898071289105</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="A35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4.9283156877197367</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="9">
+        <v>44.973269000000002</v>
+      </c>
+      <c r="F35" s="9">
+        <v>-93.264313000000001</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="9">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>2.8388190512746698</v>
-      </c>
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36">
-        <v>44.9358100891113</v>
-      </c>
-      <c r="F36">
-        <v>-93.217239379882798</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4.863291024066239</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="9">
+        <v>45.018638610839801</v>
+      </c>
+      <c r="F36" s="9">
+        <v>-93.312713623046903</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37">
-        <v>45.040271759033203</v>
-      </c>
-      <c r="F37">
-        <v>-93.299972534179702</v>
-      </c>
-      <c r="G37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4.8029494574179283</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="9">
+        <v>45.018589019775398</v>
+      </c>
+      <c r="F37" s="9">
+        <v>-93.270736694335895</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>7.2402575422318662</v>
-      </c>
-      <c r="C38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38">
-        <v>45.009601593017599</v>
-      </c>
-      <c r="F38">
-        <v>-93.305068969726605</v>
-      </c>
-      <c r="G38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4.6670108187289312</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="9">
+        <v>45.012168884277301</v>
+      </c>
+      <c r="F38" s="9">
+        <v>-93.254898071289105</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3.0689993561976907</v>
-      </c>
-      <c r="C39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39">
-        <v>44.910770416259801</v>
-      </c>
-      <c r="F39">
-        <v>-93.231620788574205</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39">
+        <v>42</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4.6424386614450359</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="9">
+        <v>45.003078460693402</v>
+      </c>
+      <c r="F39" s="9">
+        <v>-93.253082275390597</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1.3274979318979587</v>
-      </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40">
-        <v>44.899669647216797</v>
-      </c>
-      <c r="F40">
-        <v>-93.296043395996094</v>
-      </c>
-      <c r="G40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4.4950412597471425</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="9">
+        <v>44.942920684814503</v>
+      </c>
+      <c r="F40" s="9">
+        <v>-93.254379272460895</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2.7689181369184594</v>
-      </c>
-      <c r="C41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41">
-        <v>44.964099884033203</v>
-      </c>
-      <c r="F41">
-        <v>-93.310470581054702</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41">
+        <v>66</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4.4571256102226107</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="9">
+        <v>45.001991271972699</v>
+      </c>
+      <c r="F41" s="9">
+        <v>-93.265373229980497</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2.9157192342565907</v>
-      </c>
-      <c r="C42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42">
-        <v>44.979030609130902</v>
-      </c>
-      <c r="F42">
-        <v>-93.264930725097699</v>
-      </c>
-      <c r="G42" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4.4224422442244222</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="9">
+        <v>44.995090484619098</v>
+      </c>
+      <c r="F42" s="9">
+        <v>-93.241607666015597</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>4.9609810479375698</v>
-      </c>
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43">
-        <v>45.043918609619098</v>
-      </c>
-      <c r="F43">
-        <v>-93.293006896972699</v>
-      </c>
-      <c r="G43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4.267862269915959</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="9">
+        <v>44.967739105224602</v>
+      </c>
+      <c r="F43" s="9">
+        <v>-93.246482849121094</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1.5880330972619394</v>
-      </c>
-      <c r="C44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44">
-        <v>44.9268989562988</v>
-      </c>
-      <c r="F44">
-        <v>-93.320770263671903</v>
-      </c>
-      <c r="G44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9">
+        <v>4.1951348654400311</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="9">
+        <v>44.942100524902301</v>
+      </c>
+      <c r="F44" s="9">
+        <v>-93.293258666992202</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>4.6424386614450359</v>
-      </c>
-      <c r="C45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45">
-        <v>45.003078460693402</v>
-      </c>
-      <c r="F45">
-        <v>-93.253082275390597</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45">
+        <v>80</v>
+      </c>
+      <c r="B45" s="9">
+        <v>3.883495145631068</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="9">
+        <v>44.944961547851598</v>
+      </c>
+      <c r="F45" s="9">
+        <v>-93.323440551757798</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>10.375245669363316</v>
-      </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46">
-        <v>44.947608947753899</v>
-      </c>
-      <c r="F46">
-        <v>-93.225669860839801</v>
-      </c>
-      <c r="G46" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="9">
+        <v>3.8814968625629533</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="9">
+        <v>44.925201416015597</v>
+      </c>
+      <c r="F46" s="9">
+        <v>-93.212112426757798</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>4.9568025466983983</v>
-      </c>
-      <c r="C47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47">
-        <v>44.970001220703097</v>
-      </c>
-      <c r="F47">
-        <v>-93.283889770507798</v>
-      </c>
-      <c r="G47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47">
+        <v>63</v>
+      </c>
+      <c r="B47" s="9">
+        <v>3.8353584196502366</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="9">
+        <v>44.970790863037102</v>
+      </c>
+      <c r="F47" s="9">
+        <v>-93.214942932128906</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>3.574596483779747</v>
-      </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48">
-        <v>44.965419769287102</v>
-      </c>
-      <c r="F48">
-        <v>-93.296241760253906</v>
-      </c>
-      <c r="G48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48">
+        <v>68</v>
+      </c>
+      <c r="B48" s="9">
+        <v>3.7128537149834591</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="9">
+        <v>44.995079040527301</v>
+      </c>
+      <c r="F48" s="9">
+        <v>-93.2530517578125</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>6.8177163088747355</v>
-      </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49">
-        <v>44.962699890136697</v>
-      </c>
-      <c r="F49">
-        <v>-93.289909362792997</v>
-      </c>
-      <c r="G49" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="9">
+        <v>3.644449682368982</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="9">
+        <v>44.987861633300803</v>
+      </c>
+      <c r="F49" s="9">
+        <v>-93.222198486328097</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>5.0203813075961738</v>
-      </c>
-      <c r="C50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50">
-        <v>44.942920684814503</v>
-      </c>
-      <c r="F50">
-        <v>-93.282722473144503</v>
-      </c>
-      <c r="G50" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B50" s="9">
+        <v>3.6405374047576053</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="9">
+        <v>44.9734497070313</v>
+      </c>
+      <c r="F50" s="9">
+        <v>-93.237899780273395</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1.5461381685290605</v>
-      </c>
-      <c r="C51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51">
-        <v>44.9120903015137</v>
-      </c>
-      <c r="F51">
-        <v>-93.2979736328125</v>
-      </c>
-      <c r="G51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="B51" s="9">
+        <v>3.574596483779747</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="9">
+        <v>44.965419769287102</v>
+      </c>
+      <c r="F51" s="9">
+        <v>-93.296241760253906</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>5.1003685746796616</v>
-      </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52">
-        <v>44.985641479492202</v>
-      </c>
-      <c r="F52">
-        <v>-93.248687744140597</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52">
+        <v>83</v>
+      </c>
+      <c r="B52" s="9">
+        <v>3.4880471658755838</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="9">
+        <v>44.896480560302699</v>
+      </c>
+      <c r="F52" s="9">
+        <v>-93.282562255859403</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>4.8029494574179283</v>
-      </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53">
-        <v>45.018589019775398</v>
-      </c>
-      <c r="F53">
-        <v>-93.270736694335895</v>
-      </c>
-      <c r="G53" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B53" s="9">
+        <v>3.4824673376999322</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="9">
+        <v>44.930538177490199</v>
+      </c>
+      <c r="F53" s="9">
+        <v>-93.2681884765625</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>6.0094140749083138</v>
-      </c>
-      <c r="C54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54">
-        <v>45.018501281738303</v>
-      </c>
-      <c r="F54">
-        <v>-93.285743713378906</v>
-      </c>
-      <c r="G54" t="s">
-        <v>142</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B54" s="9">
+        <v>3.445947115967376</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="9">
+        <v>45.031330108642599</v>
+      </c>
+      <c r="F54" s="9">
+        <v>-93.260002136230497</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>55.464778503994189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55">
-        <v>44.9950981140137</v>
-      </c>
-      <c r="F55">
-        <v>-93.222190856933594</v>
-      </c>
-      <c r="G55" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9">
+        <v>3.3942066200403191</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="9">
+        <v>44.910808563232401</v>
+      </c>
+      <c r="F55" s="9">
+        <v>-93.215812683105497</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>6.8372371573063608</v>
-      </c>
-      <c r="C56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56">
-        <v>44.953708648681598</v>
-      </c>
-      <c r="F56">
-        <v>-93.258186340332003</v>
-      </c>
-      <c r="G56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56">
+        <v>69</v>
+      </c>
+      <c r="B56" s="9">
+        <v>3.3072507878686204</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="9">
+        <v>44.996170043945298</v>
+      </c>
+      <c r="F56" s="9">
+        <v>-93.261993408203097</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>3.3942066200403191</v>
-      </c>
-      <c r="C57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57">
-        <v>44.910808563232401</v>
-      </c>
-      <c r="F57">
-        <v>-93.215812683105497</v>
-      </c>
-      <c r="G57" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B57" s="9">
+        <v>3.2206662226306602</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="9">
+        <v>44.930530548095703</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-93.255561828613295</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1.235052542577606</v>
-      </c>
-      <c r="C58" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58">
-        <v>44.901748657226598</v>
-      </c>
-      <c r="F58">
-        <v>-93.214630126953097</v>
-      </c>
-      <c r="G58" t="s">
-        <v>146</v>
-      </c>
-      <c r="H58">
+        <v>70</v>
+      </c>
+      <c r="B58" s="9">
+        <v>3.2088677100143199</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="9">
+        <v>44.932308197021499</v>
+      </c>
+      <c r="F58" s="9">
+        <v>-93.237823486328097</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>15.855635956560375</v>
-      </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59">
-        <v>44.991989135742202</v>
-      </c>
-      <c r="F59">
-        <v>-93.295356750488295</v>
-      </c>
-      <c r="G59" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B59" s="9">
+        <v>3.192420485889536</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="9">
+        <v>44.951969146728501</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-93.317932128906307</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>15.218921793316259</v>
-      </c>
-      <c r="C60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60">
-        <v>44.979030609130902</v>
-      </c>
-      <c r="F60">
-        <v>-93.264930725097699</v>
-      </c>
-      <c r="G60" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="9">
+        <v>3.1413230784582384</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="9">
+        <v>45.018630981445298</v>
+      </c>
+      <c r="F60" s="9">
+        <v>-93.237747192382798</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>9.8275617515349225</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61">
-        <v>44.983299255371101</v>
-      </c>
-      <c r="F61">
-        <v>-93.282089233398395</v>
-      </c>
-      <c r="G61" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61">
+        <v>37</v>
+      </c>
+      <c r="B61" s="9">
+        <v>3.0689993561976907</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="9">
+        <v>44.910770416259801</v>
+      </c>
+      <c r="F61" s="9">
+        <v>-93.231620788574205</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>17.753047164811871</v>
-      </c>
-      <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62">
-        <v>45.0059204101563</v>
-      </c>
-      <c r="F62">
-        <v>-93.220970153808594</v>
-      </c>
-      <c r="G62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="B62" s="9">
+        <v>3.0662819004741877</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="9">
+        <v>44.946819305419901</v>
+      </c>
+      <c r="F62" s="9">
+        <v>-93.212028503417997</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="9">
         <v>3.0625991205305652</v>
       </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63">
+      <c r="C63" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="9">
         <v>44.976280212402301</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="9">
         <v>-93.233963012695298</v>
       </c>
-      <c r="G63" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63">
+      <c r="G63" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64">
-        <v>1.9883686182562121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" t="s">
-        <v>181</v>
-      </c>
-      <c r="E64">
-        <v>44.9074897766113</v>
-      </c>
-      <c r="F64">
-        <v>-93.270713806152301</v>
-      </c>
-      <c r="G64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9">
+        <v>3.0421817132413063</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="9">
+        <v>44.979030609130902</v>
+      </c>
+      <c r="F64" s="9">
+        <v>-93.264930725097699</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <v>2.7483111294411779</v>
-      </c>
-      <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65">
-        <v>44.953731536865199</v>
-      </c>
-      <c r="F65">
-        <v>-93.267059326171903</v>
-      </c>
-      <c r="G65" t="s">
-        <v>153</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B65" s="9">
+        <v>3.0219841041422213</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" s="9">
+        <v>44.971729278564503</v>
+      </c>
+      <c r="F65" s="9">
+        <v>-93.314071655273395</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <v>4.4950412597471425</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" t="s">
-        <v>181</v>
-      </c>
-      <c r="E66">
-        <v>44.942920684814503</v>
-      </c>
-      <c r="F66">
-        <v>-93.254379272460895</v>
-      </c>
-      <c r="G66" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B66" s="9">
+        <v>3.0041033918692857</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="9">
+        <v>44.921470642089801</v>
+      </c>
+      <c r="F66" s="9">
+        <v>-93.230232238769503</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B67">
-        <v>3.8353584196502366</v>
-      </c>
-      <c r="C67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" t="s">
-        <v>181</v>
-      </c>
-      <c r="E67">
-        <v>44.970790863037102</v>
-      </c>
-      <c r="F67">
-        <v>-93.214942932128906</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="B67" s="9">
+        <v>2.9918263059250059</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="9">
+        <v>44.923328399658203</v>
+      </c>
+      <c r="F67" s="9">
+        <v>-93.268257141113295</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68">
-        <v>2.9918263059250059</v>
-      </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68">
-        <v>44.923328399658203</v>
-      </c>
-      <c r="F68">
-        <v>-93.268257141113295</v>
-      </c>
-      <c r="G68" t="s">
-        <v>156</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2.9157192342565907</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="9">
+        <v>44.979030609130902</v>
+      </c>
+      <c r="F68" s="9">
+        <v>-93.264930725097699</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>5.0373553647394607</v>
-      </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69">
-        <v>44.957359313964801</v>
-      </c>
-      <c r="F69">
-        <v>-93.232261657714801</v>
-      </c>
-      <c r="G69" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2.8388190512746698</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="9">
+        <v>44.9358100891113</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-93.217239379882798</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70">
-        <v>4.4571256102226107</v>
-      </c>
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70">
-        <v>45.001991271972699</v>
-      </c>
-      <c r="F70">
-        <v>-93.265373229980497</v>
-      </c>
-      <c r="G70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70">
+        <v>73</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2.8146155141880298</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="9">
+        <v>44.912338256835902</v>
+      </c>
+      <c r="F70" s="9">
+        <v>-93.280693054199205</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="9">
         <v>2.8063152369478672</v>
       </c>
-      <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" t="s">
-        <v>181</v>
-      </c>
-      <c r="E71">
+      <c r="C71" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="9">
         <v>45.047580718994098</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="9">
         <v>-93.311218261718807</v>
       </c>
-      <c r="G71" t="s">
-        <v>159</v>
-      </c>
-      <c r="H71">
+      <c r="G71" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72">
-        <v>3.7128537149834591</v>
-      </c>
-      <c r="C72" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72">
-        <v>44.995079040527301</v>
-      </c>
-      <c r="F72">
-        <v>-93.2530517578125</v>
-      </c>
-      <c r="G72" t="s">
-        <v>160</v>
-      </c>
-      <c r="H72">
+        <v>79</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2.7713646120418423</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="9">
+        <v>44.901660919189503</v>
+      </c>
+      <c r="F72" s="9">
+        <v>-93.236808776855497</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>3.3072507878686204</v>
-      </c>
-      <c r="C73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E73">
-        <v>44.996170043945298</v>
-      </c>
-      <c r="F73">
-        <v>-93.261993408203097</v>
-      </c>
-      <c r="G73" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73">
+        <v>39</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2.7689181369184594</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="9">
+        <v>44.964099884033203</v>
+      </c>
+      <c r="F73" s="9">
+        <v>-93.310470581054702</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74">
-        <v>3.2088677100143199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74">
-        <v>44.932308197021499</v>
-      </c>
-      <c r="F74">
-        <v>-93.237823486328097</v>
-      </c>
-      <c r="G74" t="s">
-        <v>162</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2.7483111294411779</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="9">
+        <v>44.953731536865199</v>
+      </c>
+      <c r="F74" s="9">
+        <v>-93.267059326171903</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75">
-        <v>5.39146387253012</v>
-      </c>
-      <c r="C75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75">
-        <v>44.963939666747997</v>
-      </c>
-      <c r="F75">
-        <v>-93.272109985351605</v>
-      </c>
-      <c r="G75" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2.5364084868460077</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="9">
+        <v>44.928928375244098</v>
+      </c>
+      <c r="F75" s="9">
+        <v>-93.294448852539105</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76">
-        <v>6.3643740386827989</v>
-      </c>
-      <c r="C76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76">
-        <v>44.984260559082003</v>
-      </c>
-      <c r="F76">
-        <v>-93.290428161621094</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
-      </c>
-      <c r="H76">
+        <v>84</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2.3765786845093935</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="9">
+        <v>45.009578704833999</v>
+      </c>
+      <c r="F76" s="9">
+        <v>-93.239067077636705</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77">
-        <v>2.8146155141880298</v>
-      </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77">
-        <v>44.912338256835902</v>
-      </c>
-      <c r="F77">
-        <v>-93.280693054199205</v>
-      </c>
-      <c r="G77" t="s">
-        <v>165</v>
-      </c>
-      <c r="H77">
+        <v>85</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1.9883686182562121</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="9">
+        <v>44.9074897766113</v>
+      </c>
+      <c r="F77" s="9">
+        <v>-93.270713806152301</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H77" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78">
-        <v>3.6405374047576053</v>
-      </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78">
-        <v>44.9734497070313</v>
-      </c>
-      <c r="F78">
-        <v>-93.237899780273395</v>
-      </c>
-      <c r="G78" t="s">
-        <v>166</v>
-      </c>
-      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1.959095438347604</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="9">
+        <v>45.029468536377003</v>
+      </c>
+      <c r="F78" s="9">
+        <v>-93.237449645996094</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79">
-        <v>6.3854937388436959</v>
-      </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79">
-        <v>44.962711334228501</v>
-      </c>
-      <c r="F79">
-        <v>-93.261810302734403</v>
-      </c>
-      <c r="G79" t="s">
-        <v>167</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1.910353182368838</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="9">
+        <v>44.897918701171903</v>
+      </c>
+      <c r="F79" s="9">
+        <v>-93.259651184082003</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80">
-        <v>6.9291035191369117</v>
-      </c>
-      <c r="C80" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80">
-        <v>45.029518127441399</v>
-      </c>
-      <c r="F80">
-        <v>-93.312911987304702</v>
-      </c>
-      <c r="G80" t="s">
-        <v>168</v>
-      </c>
-      <c r="H80">
+        <v>29</v>
+      </c>
+      <c r="B80" s="9">
+        <v>1.7293797619487217</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="9">
+        <v>44.908870697021499</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-93.255630493164105</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81">
-        <v>1.959095438347604</v>
-      </c>
-      <c r="C81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81">
-        <v>45.029468536377003</v>
-      </c>
-      <c r="F81">
-        <v>-93.237449645996094</v>
-      </c>
-      <c r="G81" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B81" s="9">
+        <v>1.6122500111544706</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="9">
+        <v>44.912448883056598</v>
+      </c>
+      <c r="F81" s="9">
+        <v>-93.318588256835895</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82">
-        <v>5.9689892851227553</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82">
-        <v>45.0295600891113</v>
-      </c>
-      <c r="F82">
-        <v>-93.295112609863295</v>
-      </c>
-      <c r="G82" t="s">
-        <v>170</v>
-      </c>
-      <c r="H82">
+        <v>41</v>
+      </c>
+      <c r="B82" s="9">
+        <v>1.5880330972619394</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="9">
+        <v>44.9268989562988</v>
+      </c>
+      <c r="F82" s="9">
+        <v>-93.320770263671903</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>2.7713646120418423</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83">
-        <v>44.901660919189503</v>
-      </c>
-      <c r="F83">
-        <v>-93.236808776855497</v>
-      </c>
-      <c r="G83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H83">
+        <v>48</v>
+      </c>
+      <c r="B83" s="9">
+        <v>1.5461381685290605</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="9">
+        <v>44.9120903015137</v>
+      </c>
+      <c r="F83" s="9">
+        <v>-93.2979736328125</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84">
-        <v>3.883495145631068</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" t="s">
-        <v>181</v>
-      </c>
-      <c r="E84">
-        <v>44.944961547851598</v>
-      </c>
-      <c r="F84">
-        <v>-93.323440551757798</v>
-      </c>
-      <c r="G84" t="s">
-        <v>172</v>
-      </c>
-      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="B84" s="9">
+        <v>1.4014306779268575</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="9">
+        <v>44.897941589355497</v>
+      </c>
+      <c r="F84" s="9">
+        <v>-93.311828613281307</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85">
-        <v>5.7730515485154532</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85">
-        <v>44.957309722900398</v>
-      </c>
-      <c r="F85">
-        <v>-93.280441284179702</v>
-      </c>
-      <c r="G85" t="s">
-        <v>173</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B85" s="9">
+        <v>1.3274979318979587</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="9">
+        <v>44.899669647216797</v>
+      </c>
+      <c r="F85" s="9">
+        <v>-93.296043395996094</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>5.3776877477287872</v>
-      </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86">
-        <v>44.995151519775398</v>
-      </c>
-      <c r="F86">
-        <v>-93.311790466308594</v>
-      </c>
-      <c r="G86" t="s">
-        <v>174</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="B86" s="9">
+        <v>1.235052542577606</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="9">
+        <v>44.901748657226598</v>
+      </c>
+      <c r="F86" s="9">
+        <v>-93.214630126953097</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87">
-        <v>3.4880471658755838</v>
-      </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87">
-        <v>44.896480560302699</v>
-      </c>
-      <c r="F87">
-        <v>-93.282562255859403</v>
-      </c>
-      <c r="G87" t="s">
-        <v>175</v>
-      </c>
-      <c r="H87">
+        <v>52</v>
+      </c>
+      <c r="B87" s="9">
+        <v>0</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="9">
+        <v>44.9950981140137</v>
+      </c>
+      <c r="F87" s="9">
+        <v>-93.222190856933594</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88">
-        <v>2.3765786845093935</v>
-      </c>
-      <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" t="s">
-        <v>181</v>
-      </c>
-      <c r="E88">
-        <v>45.009578704833999</v>
-      </c>
-      <c r="F88">
-        <v>-93.239067077636705</v>
-      </c>
-      <c r="G88" t="s">
-        <v>176</v>
-      </c>
-      <c r="H88">
+        <v>35</v>
+      </c>
+      <c r="B88" s="9">
+        <v>0</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="9">
+        <v>45.040271759033203</v>
+      </c>
+      <c r="F88" s="9">
+        <v>-93.299972534179702</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89">
-        <v>4.9283156877197367</v>
-      </c>
-      <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89">
-        <v>44.973269000000002</v>
-      </c>
-      <c r="F89">
-        <v>-93.264313000000001</v>
-      </c>
-      <c r="G89" t="s">
-        <v>254</v>
-      </c>
-      <c r="H89">
-        <v>29</v>
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="9">
+        <v>0</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="9">
+        <v>45.037620544433601</v>
+      </c>
+      <c r="F89" s="9">
+        <v>-93.285049438476605</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H89">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4608,43 +4724,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="C2" s="8">
         <v>36660</v>
@@ -4652,22 +4774,28 @@
       <c r="D2" s="7">
         <v>2000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>257</v>
+      <c r="E2" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F2" s="7">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="6">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" s="8">
         <v>36689</v>
@@ -4675,22 +4803,28 @@
       <c r="D3" s="7">
         <v>2000</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>257</v>
+      <c r="E3" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F3" s="7">
         <v>49</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4" s="8">
         <v>36831</v>
@@ -4698,22 +4832,28 @@
       <c r="D4" s="7">
         <v>2000</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>257</v>
+      <c r="E4" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F4" s="7">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="6">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C5" s="8">
         <v>36983</v>
@@ -4721,22 +4861,28 @@
       <c r="D5" s="7">
         <v>2001</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>257</v>
+      <c r="E5" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F5" s="7">
         <v>27</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="6">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C6" s="8">
         <v>37012</v>
@@ -4744,22 +4890,28 @@
       <c r="D6" s="7">
         <v>2001</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>183</v>
+      <c r="E6" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F6" s="7">
         <v>21</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C7" s="8">
         <v>37101</v>
@@ -4767,22 +4919,28 @@
       <c r="D7" s="7">
         <v>2001</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>257</v>
+      <c r="E7" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F7" s="7">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="6">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" s="8">
         <v>37325</v>
@@ -4790,22 +4948,28 @@
       <c r="D8" s="7">
         <v>2002</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>257</v>
+      <c r="E8" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="7">
         <v>28</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="6">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C9" s="8">
         <v>37469</v>
@@ -4813,22 +4977,28 @@
       <c r="D9" s="7">
         <v>2002</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>257</v>
+      <c r="E9" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F9" s="7">
         <v>60</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="6">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="8">
         <v>37561</v>
@@ -4836,22 +5006,28 @@
       <c r="D10" s="7">
         <v>2002</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>183</v>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F10" s="7">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C11" s="8">
         <v>37748</v>
@@ -4859,22 +5035,28 @@
       <c r="D11" s="7">
         <v>2003</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>257</v>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F11" s="7">
         <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="6">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C12" s="8">
         <v>37861</v>
@@ -4882,22 +5064,28 @@
       <c r="D12" s="7">
         <v>2003</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>183</v>
+      <c r="E12" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F12" s="7">
         <v>28</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C13" s="8">
         <v>37904</v>
@@ -4905,22 +5093,28 @@
       <c r="D13" s="7">
         <v>2003</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>257</v>
+      <c r="E13" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F13" s="7">
         <v>21</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="6">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C14" s="8">
         <v>38028</v>
@@ -4928,22 +5122,28 @@
       <c r="D14" s="7">
         <v>2004</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>183</v>
+      <c r="E14" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F14" s="7">
         <v>40</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C15" s="8">
         <v>38133</v>
@@ -4951,22 +5151,28 @@
       <c r="D15" s="7">
         <v>2004</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>183</v>
+      <c r="E15" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F15" s="7">
         <v>28</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C16" s="8">
         <v>38284</v>
@@ -4974,22 +5180,28 @@
       <c r="D16" s="7">
         <v>2004</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>257</v>
+      <c r="E16" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F16" s="7">
         <v>15</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="6">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="8">
         <v>38374</v>
@@ -4997,22 +5209,28 @@
       <c r="D17" s="7">
         <v>2005</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>257</v>
+      <c r="E17" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F17" s="7">
         <v>21</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="6">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C18" s="8">
         <v>38565</v>
@@ -5020,22 +5238,28 @@
       <c r="D18" s="7">
         <v>2005</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>257</v>
+      <c r="E18" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F18" s="7">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="6">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C19" s="8">
         <v>38920</v>
@@ -5043,22 +5267,28 @@
       <c r="D19" s="7">
         <v>2006</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>257</v>
+      <c r="E19" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F19" s="7">
         <v>19</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="6">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="8">
         <v>38980</v>
@@ -5066,22 +5296,28 @@
       <c r="D20" s="7">
         <v>2006</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>183</v>
+      <c r="E20" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F20" s="7">
         <v>27</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" s="8">
         <v>39019</v>
@@ -5089,22 +5325,28 @@
       <c r="D21" s="7">
         <v>2006</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>257</v>
+      <c r="E21" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F21" s="7">
         <v>42</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="6">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C22" s="8">
         <v>39539</v>
@@ -5112,22 +5354,28 @@
       <c r="D22" s="7">
         <v>2008</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>183</v>
+      <c r="E22" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F22" s="7">
         <v>39</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C23" s="8">
         <v>39791</v>
@@ -5135,22 +5383,28 @@
       <c r="D23" s="7">
         <v>2008</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>257</v>
+      <c r="E23" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F23" s="7">
         <v>24</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="6">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="8">
         <v>39849</v>
@@ -5158,22 +5412,28 @@
       <c r="D24" s="7">
         <v>2009</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>257</v>
+      <c r="E24" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F24" s="7">
         <v>23</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="6">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="8">
         <v>40438</v>
@@ -5181,22 +5441,28 @@
       <c r="D25" s="7">
         <v>2010</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>183</v>
+      <c r="E25" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F25" s="7">
         <v>28</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="6">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="8">
         <v>41041</v>
@@ -5204,17 +5470,23 @@
       <c r="D26" s="7">
         <v>2012</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>257</v>
+      <c r="E26" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F26" s="7">
         <v>40</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="6">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>190</v>
       </c>
@@ -5227,17 +5499,23 @@
       <c r="D27" s="7">
         <v>2013</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>257</v>
+      <c r="E27" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F27" s="7">
         <v>22</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="6">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>187</v>
       </c>
@@ -5250,22 +5528,28 @@
       <c r="D28" s="7">
         <v>2015</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>183</v>
+      <c r="E28" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F28" s="7">
         <v>24</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="6">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C29" s="8">
         <v>42464</v>
@@ -5273,22 +5557,28 @@
       <c r="D29" s="7">
         <v>2016</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>257</v>
+      <c r="E29" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F29" s="7">
         <v>50</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="6">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="C30" s="8">
         <v>42931</v>
@@ -5296,18 +5586,24 @@
       <c r="D30" s="7">
         <v>2017</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>183</v>
+      <c r="E30" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F30" s="7">
         <v>40</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>179</v>
+      <c r="G30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="6">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H30">
+  <sortState ref="A2:I30">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5322,6 +5618,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5720,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5342,7 +5730,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/20170726-crimerates/builds/development/data/_raw/printdata.xlsx
+++ b/20170726-crimerates/builds/development/data/_raw/printdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="280">
   <si>
     <t>ARMATAGE</t>
   </si>
@@ -856,13 +856,19 @@
   </si>
   <si>
     <t>Source: U.S. Census Bureau, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,6 +932,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -950,7 +966,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="539">
+  <cellStyleXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1490,8 +1506,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1513,8 +1531,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="539">
+  <cellStyles count="541">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1783,6 +1806,7 @@
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -2051,6 +2075,7 @@
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="1"/>
@@ -4724,15 +4749,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="I7" activeCellId="1" sqref="M7 I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>244</v>
       </c>
@@ -4760,8 +4785,14 @@
       <c r="I1" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -4789,8 +4820,14 @@
       <c r="I2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="13">
+        <v>44.937156000000002</v>
+      </c>
+      <c r="K2" s="13">
+        <v>-93.273123999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>240</v>
       </c>
@@ -4818,8 +4855,14 @@
       <c r="I3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="13">
+        <v>44.946407000000001</v>
+      </c>
+      <c r="K3" s="13">
+        <v>-93.298675500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>238</v>
       </c>
@@ -4847,8 +4890,14 @@
       <c r="I4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="13">
+        <v>44.947066999999997</v>
+      </c>
+      <c r="K4" s="13">
+        <v>-93.255409200000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>236</v>
       </c>
@@ -4876,8 +4925,14 @@
       <c r="I5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="13">
+        <v>44.919842000000003</v>
+      </c>
+      <c r="K5" s="13">
+        <v>-93.278343199999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>234</v>
       </c>
@@ -4905,8 +4960,14 @@
       <c r="I6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="13">
+        <v>44.934142000000001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>-93.272708399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>232</v>
       </c>
@@ -4934,8 +4995,14 @@
       <c r="I7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="13">
+        <v>45.022320000000001</v>
+      </c>
+      <c r="K7" s="13">
+        <v>-93.296493499999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>230</v>
       </c>
@@ -4963,8 +5030,14 @@
       <c r="I8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="13">
+        <v>44.963639000000001</v>
+      </c>
+      <c r="K8" s="13">
+        <v>-93.262613599999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>228</v>
       </c>
@@ -4992,8 +5065,14 @@
       <c r="I9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="13">
+        <v>44.946536999999999</v>
+      </c>
+      <c r="K9" s="13">
+        <v>-93.280077399999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>226</v>
       </c>
@@ -5021,8 +5100,14 @@
       <c r="I10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="13">
+        <v>44.959873000000002</v>
+      </c>
+      <c r="K10" s="13">
+        <v>-93.262123099999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>224</v>
       </c>
@@ -5050,8 +5135,14 @@
       <c r="I11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="13">
+        <v>45.003878</v>
+      </c>
+      <c r="K11" s="13">
+        <v>-93.308229999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>215</v>
       </c>
@@ -5079,8 +5170,14 @@
       <c r="I12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="13">
+        <v>44.979942000000001</v>
+      </c>
+      <c r="K12" s="13">
+        <v>-93.307952900000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>221</v>
       </c>
@@ -5108,8 +5205,14 @@
       <c r="I13" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="13">
+        <v>44.960296</v>
+      </c>
+      <c r="K13" s="13">
+        <v>-93.265049000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>219</v>
       </c>
@@ -5137,8 +5240,14 @@
       <c r="I14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="13">
+        <v>44.958854000000002</v>
+      </c>
+      <c r="K14" s="13">
+        <v>-93.285842000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>217</v>
       </c>
@@ -5166,8 +5275,14 @@
       <c r="I15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="13">
+        <v>45.011615999999997</v>
+      </c>
+      <c r="K15" s="13">
+        <v>-93.301855599999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>215</v>
       </c>
@@ -5195,8 +5310,14 @@
       <c r="I16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="13">
+        <v>45.005898000000002</v>
+      </c>
+      <c r="K16" s="13">
+        <v>-93.315033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>213</v>
       </c>
@@ -5224,8 +5345,14 @@
       <c r="I17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="13">
+        <v>44.962893999999999</v>
+      </c>
+      <c r="K17" s="13">
+        <v>-93.288978599999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>211</v>
       </c>
@@ -5253,8 +5380,14 @@
       <c r="I18" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="13">
+        <v>45.015357999999999</v>
+      </c>
+      <c r="K18" s="13">
+        <v>-93.284095800000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>209</v>
       </c>
@@ -5282,8 +5415,14 @@
       <c r="I19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="13">
+        <v>44.930529999999997</v>
+      </c>
+      <c r="K19" s="13">
+        <v>-93.252370200000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>207</v>
       </c>
@@ -5311,8 +5450,14 @@
       <c r="I20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="13">
+        <v>44.926909999999999</v>
+      </c>
+      <c r="K20" s="13">
+        <v>-93.223610199999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>204</v>
       </c>
@@ -5340,8 +5485,14 @@
       <c r="I21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="13">
+        <v>44.975262000000001</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-93.279055499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>202</v>
       </c>
@@ -5369,8 +5520,14 @@
       <c r="I22" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="13">
+        <v>44.987757000000002</v>
+      </c>
+      <c r="K22" s="13">
+        <v>-93.301905899999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>195</v>
       </c>
@@ -5398,8 +5555,14 @@
       <c r="I23" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="13">
+        <v>44.998750000000001</v>
+      </c>
+      <c r="K23" s="13">
+        <v>-93.304429900000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>197</v>
       </c>
@@ -5427,8 +5590,14 @@
       <c r="I24" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="13">
+        <v>44.975864000000001</v>
+      </c>
+      <c r="K24" s="13">
+        <v>-93.275512699999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>195</v>
       </c>
@@ -5456,8 +5625,14 @@
       <c r="I25" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="13">
+        <v>44.947639000000002</v>
+      </c>
+      <c r="K25" s="13">
+        <v>-93.244522099999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>193</v>
       </c>
@@ -5485,8 +5660,14 @@
       <c r="I26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="13">
+        <v>44.953163000000004</v>
+      </c>
+      <c r="K26" s="13">
+        <v>-93.2902603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>190</v>
       </c>
@@ -5514,8 +5695,14 @@
       <c r="I27" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="13">
+        <v>44.991782999999998</v>
+      </c>
+      <c r="K27" s="13">
+        <v>-93.300972000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>187</v>
       </c>
@@ -5543,8 +5730,14 @@
       <c r="I28" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="13">
+        <v>44.962600000000002</v>
+      </c>
+      <c r="K28" s="13">
+        <v>-93.244100000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
         <v>183</v>
       </c>
@@ -5572,8 +5765,14 @@
       <c r="I29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="13">
+        <v>44.910629999999998</v>
+      </c>
+      <c r="K29" s="13">
+        <v>-93.318219999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
         <v>176</v>
       </c>
@@ -5600,6 +5799,12 @@
       </c>
       <c r="I30" t="s">
         <v>117</v>
+      </c>
+      <c r="J30" s="13">
+        <v>44.967874999999999</v>
+      </c>
+      <c r="K30" s="13">
+        <v>-93.257012399999994</v>
       </c>
     </row>
   </sheetData>
@@ -5620,20 +5825,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5712,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
